--- a/medicine/Hématologie/Méthémoglobine/Méthémoglobine.xlsx
+++ b/medicine/Hématologie/Méthémoglobine/Méthémoglobine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9th%C3%A9moglobine</t>
+          <t>Méthémoglobine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La méthémoglobine (metHb) est une forme de l'hémoglobine dans laquelle le cation de fer de l'hème est à l'état d'oxydation +3 (ferrique), et non à l'état d'oxydation +2 (ferreux) qui est celui de l'hémoglobine. Elle présente une coloration brun-chocolat bleutée. Chez l'homme, elle est présente naturellement en petites quantités — moins de 2 % — dans le sang, mais lorsque sa concentration augmente anormalement, elle donne une teinte brun sombre bleutée au sang. Contrairement à l'hémoglobine, la méthémoglobine ne fixe pas l’oxygène, ce qui la rend impropre au transport de ce dernier dans le sang. La cytochrome b5 réductase, également appelée méthémoglobine réductase, est capable de réduire le cation Fe3+ de la méthémoglobine en cation Fe2+ pour redonner de l'hémoglobine fonctionnelle.
 L'hémoglobine est transformée en méthémoglobine par divers agents comme les nitrites. La réaction inverse est catalysée par deux enzymes, la cytochrome b5 réductase et la NADPH méthémoglobine réductase. La cytochrome b5 réductase est l'enzyme permettant la réduction des 2 à 3 % de methémoglobine produits physiologiquement. Un déficit en cytochrome b5 réductase est la cause la plus fréquente de méthémoglobinémie congénitale. Quant à la NADPH méthémoglobine réductase, elle nécessite pour être active un cofacteur exogène tel que le bleu de méthylène. Elle n'est donc utile que lors de méthémoglobinémies pathologiques, après administration intraveineuse de bleu de méthylène.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9th%C3%A9moglobine</t>
+          <t>Méthémoglobine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Liens</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">hémoglobine
 oxyhémoglobine
